--- a/product/Hasil Undian.xlsx
+++ b/product/Hasil Undian.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -390,6 +390,9 @@
       <c r="C1" t="str">
         <v>Kota</v>
       </c>
+      <c r="D1" t="str">
+        <v>Channel</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -398,406 +401,32 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>6285399662092</v>
-      </c>
-      <c r="B3" t="str">
-        <v>JATIM</v>
-      </c>
-      <c r="C3" t="str">
-        <v>KOTA PROBOLINGGO</v>
+        <v>Hadiah Utama</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Hadiah Utama</v>
+        <v>Hadiah Kedua</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>6285338851788</v>
-      </c>
-      <c r="B5" t="str">
-        <v>BALNUS</v>
-      </c>
-      <c r="C5" t="str">
-        <v>SUMBAWA BARAT</v>
+        <v>Hadiah Ketiga</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>6285385618975</v>
-      </c>
-      <c r="B6" t="str">
-        <v>JATENG</v>
-      </c>
-      <c r="C6" t="str">
-        <v>KOTA TEGAL</v>
+        <v>Hadiah Keempat</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>6285385555459</v>
-      </c>
-      <c r="B7" t="str">
-        <v>JATIM</v>
-      </c>
-      <c r="C7" t="str">
-        <v>TULUNGAGUNG</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Hadiah Kedua</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>6285399284772</v>
-      </c>
-      <c r="B9" t="str">
-        <v>BALNUS</v>
-      </c>
-      <c r="C9" t="str">
-        <v>SABU RAIJUA</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>6282140853455</v>
-      </c>
-      <c r="B10" t="str">
-        <v>JATIM</v>
-      </c>
-      <c r="C10" t="str">
-        <v>KOTA BATU</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>6285385940447</v>
-      </c>
-      <c r="B11" t="str">
-        <v>JATENG</v>
-      </c>
-      <c r="C11" t="str">
-        <v>GUNUNG KIDUL</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Hadiah Ketiga</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>6285394788078</v>
-      </c>
-      <c r="B13" t="str">
-        <v>BALNUS</v>
-      </c>
-      <c r="C13" t="str">
-        <v>ENDE</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>6285389001373</v>
-      </c>
-      <c r="B14" t="str">
-        <v>JATENG</v>
-      </c>
-      <c r="C14" t="str">
-        <v>BOYOLALI</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>6285338354779</v>
-      </c>
-      <c r="B15" t="str">
-        <v>JATIM</v>
-      </c>
-      <c r="C15" t="str">
-        <v>SUMENEP</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>6285386569036</v>
-      </c>
-      <c r="B16" t="str">
-        <v>BALNUS</v>
-      </c>
-      <c r="C16" t="str">
-        <v>ENDE</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>6281211207404</v>
-      </c>
-      <c r="B17" t="str">
-        <v>JATENG</v>
-      </c>
-      <c r="C17" t="str">
-        <v>PURWOREJO</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>6285335906363</v>
-      </c>
-      <c r="B18" t="str">
-        <v>JATIM</v>
-      </c>
-      <c r="C18" t="str">
-        <v>KOTA PROBOLINGGO</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>6285366449854</v>
-      </c>
-      <c r="B19" t="str">
-        <v>BALNUS</v>
-      </c>
-      <c r="C19" t="str">
-        <v>ROTE NDAO</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>6285337880088</v>
-      </c>
-      <c r="B20" t="str">
-        <v>JATIM</v>
-      </c>
-      <c r="C20" t="str">
-        <v>MAGETAN</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>6285386570136</v>
-      </c>
-      <c r="B21" t="str">
-        <v>JATENG</v>
-      </c>
-      <c r="C21" t="str">
-        <v>WONOGIRI</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>Hadiah Keempat</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>6281237297169</v>
-      </c>
-      <c r="B23" t="str">
-        <v>BALNUS</v>
-      </c>
-      <c r="C23" t="str">
-        <v>LEMBATA</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>6285397711115</v>
-      </c>
-      <c r="B24" t="str">
-        <v>JATENG</v>
-      </c>
-      <c r="C24" t="str">
-        <v>KLATEN</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>6285363843183</v>
-      </c>
-      <c r="B25" t="str">
-        <v>JATIM</v>
-      </c>
-      <c r="C25" t="str">
-        <v>PONOROGO</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>6285382593401</v>
-      </c>
-      <c r="B26" t="str">
-        <v>BALNUS</v>
-      </c>
-      <c r="C26" t="str">
-        <v>KLUNGKUNG</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>6285386519238</v>
-      </c>
-      <c r="B27" t="str">
-        <v>JATENG</v>
-      </c>
-      <c r="C27" t="str">
-        <v>SRAGEN</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>6281388133955</v>
-      </c>
-      <c r="B28" t="str">
-        <v>JATIM</v>
-      </c>
-      <c r="C28" t="str">
-        <v>SUMENEP</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>6285337294404</v>
-      </c>
-      <c r="B29" t="str">
-        <v>BALNUS</v>
-      </c>
-      <c r="C29" t="str">
-        <v>NGADA</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>6285360025864</v>
-      </c>
-      <c r="B30" t="str">
-        <v>JATIM</v>
-      </c>
-      <c r="C30" t="str">
-        <v>JEMBER</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>6285336196448</v>
-      </c>
-      <c r="B31" t="str">
-        <v>JATENG</v>
-      </c>
-      <c r="C31" t="str">
-        <v>SUKOHARJO</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
         <v>Hadiah Kelima</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>6285338863666</v>
-      </c>
-      <c r="B33" t="str">
-        <v>BALNUS</v>
-      </c>
-      <c r="C33" t="str">
-        <v>GIANYAR</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>6285385321166</v>
-      </c>
-      <c r="B34" t="str">
-        <v>JATENG</v>
-      </c>
-      <c r="C34" t="str">
-        <v>PEKALONGAN</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>6285388401114</v>
-      </c>
-      <c r="B35" t="str">
-        <v>JATIM</v>
-      </c>
-      <c r="C35" t="str">
-        <v>PACITAN</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>6285338515819</v>
-      </c>
-      <c r="B36" t="str">
-        <v>BALNUS</v>
-      </c>
-      <c r="C36" t="str">
-        <v>LOMBOK BARAT</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>6285335368599</v>
-      </c>
-      <c r="B37" t="str">
-        <v>JATENG</v>
-      </c>
-      <c r="C37" t="str">
-        <v>KOTA SEMARANG</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>6281231809860</v>
-      </c>
-      <c r="B38" t="str">
-        <v>JATIM</v>
-      </c>
-      <c r="C38" t="str">
-        <v>KOTA KEDIRI</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>6285353215647</v>
-      </c>
-      <c r="B39" t="str">
-        <v>BALNUS</v>
-      </c>
-      <c r="C39" t="str">
-        <v>LEMBATA</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>6285109999948</v>
-      </c>
-      <c r="B40" t="str">
-        <v>JATIM</v>
-      </c>
-      <c r="C40" t="str">
-        <v>NGANJUK</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>6285325699926</v>
-      </c>
-      <c r="B41" t="str">
-        <v>JATENG</v>
-      </c>
-      <c r="C41" t="str">
-        <v>TEGAL</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/product/Hasil Undian.xlsx
+++ b/product/Hasil Undian.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -385,48 +385,92 @@
         <v>MSISDN</v>
       </c>
       <c r="B1" t="str">
-        <v>Region</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Kota</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Channel</v>
+        <v>Hadiah</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Hadiah Spesial</v>
+        <v>6285382325158</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Sepeda Listrik Lankeileisi S20 Pro</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Hadiah Utama</v>
+        <v>6285392228946</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Galaxy Tab A9+ 5G</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Hadiah Kedua</v>
+        <v>6285382588319</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Galaxy Tab A9+ 5G</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Hadiah Ketiga</v>
+        <v>6285385754771</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Galaxy Tab A9+ 5G</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Hadiah Keempat</v>
+        <v>6285336844573</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Galaxy Tab A9+ 5G</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Hadiah Kelima</v>
+        <v>6285321547466</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Galaxy Tab A9+ 5G</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>6281272711058</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Galaxy Tab A9+ 5G</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>6281228216768</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Galaxy Tab A9+ 5G</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>6285386297155</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Galaxy Tab A9+ 5G</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>6285382325158</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Galaxy Tab A9+ 5G</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/product/Hasil Undian.xlsx
+++ b/product/Hasil Undian.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -390,7 +390,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6285382325158</v>
+        <v>6281270733453</v>
       </c>
       <c r="B2" t="str">
         <v>Sepeda Listrik Lankeileisi S20 Pro</v>
@@ -398,15 +398,15 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>6285392228946</v>
+        <v>6285393996854</v>
       </c>
       <c r="B3" t="str">
-        <v>Galaxy Tab A9+ 5G</v>
+        <v>Sepeda Listrik Lankeileisi S20 Pro</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>6285382588319</v>
+        <v>6285337397477</v>
       </c>
       <c r="B4" t="str">
         <v>Galaxy Tab A9+ 5G</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>6285385754771</v>
+        <v>6281392662992</v>
       </c>
       <c r="B5" t="str">
         <v>Galaxy Tab A9+ 5G</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>6285336844573</v>
+        <v>6281259443815</v>
       </c>
       <c r="B6" t="str">
         <v>Galaxy Tab A9+ 5G</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>6285321547466</v>
+        <v>6285338095606</v>
       </c>
       <c r="B7" t="str">
         <v>Galaxy Tab A9+ 5G</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>6281272711058</v>
+        <v>6281218135522</v>
       </c>
       <c r="B8" t="str">
         <v>Galaxy Tab A9+ 5G</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>6281228216768</v>
+        <v>6285334549700</v>
       </c>
       <c r="B9" t="str">
         <v>Galaxy Tab A9+ 5G</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>6285386297155</v>
+        <v>6285385210105</v>
       </c>
       <c r="B10" t="str">
         <v>Galaxy Tab A9+ 5G</v>
@@ -462,15 +462,23 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>6285382325158</v>
+        <v>6281270733453</v>
       </c>
       <c r="B11" t="str">
+        <v>Galaxy Tab A9+ 5G</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>6285393996854</v>
+      </c>
+      <c r="B12" t="str">
         <v>Galaxy Tab A9+ 5G</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/product/Hasil Undian.xlsx
+++ b/product/Hasil Undian.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -390,23 +390,23 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6281270733453</v>
+        <v>6285393914398</v>
       </c>
       <c r="B2" t="str">
-        <v>Sepeda Listrik Lankeileisi S20 Pro</v>
+        <v>Galaxy Tab A9+ 5G</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>6285393996854</v>
+        <v>6285329564454</v>
       </c>
       <c r="B3" t="str">
-        <v>Sepeda Listrik Lankeileisi S20 Pro</v>
+        <v>Galaxy Tab A9+ 5G</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>6285337397477</v>
+        <v>6285348866025</v>
       </c>
       <c r="B4" t="str">
         <v>Galaxy Tab A9+ 5G</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>6281392662992</v>
+        <v>6285338186942</v>
       </c>
       <c r="B5" t="str">
         <v>Galaxy Tab A9+ 5G</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>6281259443815</v>
+        <v>6285385523981</v>
       </c>
       <c r="B6" t="str">
         <v>Galaxy Tab A9+ 5G</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>6285338095606</v>
+        <v>6285336520416</v>
       </c>
       <c r="B7" t="str">
         <v>Galaxy Tab A9+ 5G</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>6281218135522</v>
+        <v>6281212553647</v>
       </c>
       <c r="B8" t="str">
         <v>Galaxy Tab A9+ 5G</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>6285334549700</v>
+        <v>6285293833910</v>
       </c>
       <c r="B9" t="str">
         <v>Galaxy Tab A9+ 5G</v>
@@ -454,31 +454,15 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>6285385210105</v>
+        <v>6285336561818</v>
       </c>
       <c r="B10" t="str">
-        <v>Galaxy Tab A9+ 5G</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>6281270733453</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Galaxy Tab A9+ 5G</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>6285393996854</v>
-      </c>
-      <c r="B12" t="str">
         <v>Galaxy Tab A9+ 5G</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B10"/>
   </ignoredErrors>
 </worksheet>
 </file>